--- a/biology/Botanique/Allium_geyeri/Allium_geyeri.xlsx
+++ b/biology/Botanique/Allium_geyeri/Allium_geyeri.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Allium geyeri est une espèce de plante bulbeuse herbacée vivace du genre Allium, de la famille des Amaryllidacées. C'est une sorte d'oignon d'Amérique du Nord  répandu dans l'ouest des États-Unis et dans l'ouest du Canada. On la trouve dans les Rocky Mountain du Nouveau-Mexique, dans l'Idaho, le Great Basin, le Pacific Northwest, le Texas, le Dakota du sud, l'Arizona, le Manitoba, la Colombie-Britannique, l'Alberta et le öSaskatchewan[4],[5].
+Allium geyeri est une espèce de plante bulbeuse herbacée vivace du genre Allium, de la famille des Amaryllidacées. C'est une sorte d'oignon d'Amérique du Nord  répandu dans l'ouest des États-Unis et dans l'ouest du Canada. On la trouve dans les Rocky Mountain du Nouveau-Mexique, dans l'Idaho, le Great Basin, le Pacific Northwest, le Texas, le Dakota du sud, l'Arizona, le Manitoba, la Colombie-Britannique, l'Alberta et le öSaskatchewan,.
 </t>
         </is>
       </c>
@@ -512,11 +524,13 @@
           <t>Variétés</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Allium geyeri var. chatterleyi S.L.Welsh - Abajo Mountains in Utah[6],[7]
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Allium geyeri var. chatterleyi S.L.Welsh - Abajo Mountains in Utah,
 Allium geyeri var. geyeri  - much of species range
-Allium geyeri var. tenerum M.E.Jones[8] - much of species range</t>
+Allium geyeri var. tenerum M.E.Jones - much of species range</t>
         </is>
       </c>
     </row>
@@ -544,9 +558,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Allium geyeri forme des bulbes étroitement allongés pouvant atteindre 25 mm de long. Les tiges florifères peuvent atteindre jusqu'à 50 cm de hauteur. Les fleurs sont en forme de cloche à urne, roses à blanches avec du pollen jaune[4],[9],[10],[11],[12].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Allium geyeri forme des bulbes étroitement allongés pouvant atteindre 25 mm de long. Les tiges florifères peuvent atteindre jusqu'à 50 cm de hauteur. Les fleurs sont en forme de cloche à urne, roses à blanches avec du pollen jaune.
 </t>
         </is>
       </c>
